--- a/路段.xlsx
+++ b/路段.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python_script\learn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\TaipeiTruePriceCrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{136806DC-DF99-4CDF-841E-6CFE1C08F6A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21786A8-2FA7-4780-A374-9FD1CFC97B8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F35FDBA2-0207-45A9-9037-A60ECBB660E7}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" xr2:uid="{F35FDBA2-0207-45A9-9037-A60ECBB660E7}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2523,7 +2523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2540,6 +2540,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -2579,7 +2587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2590,6 +2598,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,7 +2920,7 @@
   <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2918,7 +2929,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2936,7 +2947,7 @@
       <c r="F1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>441</v>
       </c>
       <c r="H1" s="2" t="s">
